--- a/righttoasite/datainfo.xlsx
+++ b/righttoasite/datainfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dearj\Documents\vscode\python\righttoasite\righttoasite\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dearj\Documents\vscode\python\righttoasite\registration\righttoasite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE3E46-9316-4016-B2E7-FFF06C80DB5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83278FC-8A73-476E-A5A9-53BB317C545B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24165" yWindow="2655" windowWidth="18975" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regist" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="163">
   <si>
     <t>2.제출방식</t>
   </si>
@@ -140,6 +140,15 @@
     <t>산척동</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3032동1304호전유부분 취득</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>주식회사부영주택</t>
   </si>
   <si>
@@ -152,6 +161,41 @@
     <t>이중근</t>
   </si>
   <si>
+    <t>CXRVNBXQ8D93</t>
+  </si>
+  <si>
+    <t>이진경</t>
+  </si>
+  <si>
+    <t>삼미로</t>
+  </si>
+  <si>
+    <t>내삼미동</t>
+  </si>
+  <si>
+    <t>3032동1401호전유부분 취득</t>
+  </si>
+  <si>
+    <t>이미영
+이재원</t>
+  </si>
+  <si>
+    <t>770607-2095616
+760916-1813714</t>
+  </si>
+  <si>
+    <t>동탄산단8길
+동탄산단8길</t>
+  </si>
+  <si>
+    <t>방교동
+방교동</t>
+  </si>
+  <si>
+    <t>15-12(방교동)
+15-12(방교동)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -206,81 +250,298 @@
     <t>면허세</t>
   </si>
   <si>
-    <t>청계동</t>
-  </si>
-  <si>
     <t>토지소유권취득</t>
   </si>
   <si>
-    <t>강신철</t>
-  </si>
-  <si>
-    <t>730312-1252223</t>
-  </si>
-  <si>
-    <t>공도5로</t>
-  </si>
-  <si>
-    <t>만정리</t>
-  </si>
-  <si>
-    <t>40, 306동 1002호 (금호어울림아파트)</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>박성철</t>
+  </si>
+  <si>
+    <t>동탄순환대로7길</t>
+  </si>
+  <si>
+    <t>22,3031동204호 (산척동,더레이크시티부영5단지)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>배현호</t>
+  </si>
+  <si>
+    <t>천천로22번길</t>
+  </si>
+  <si>
+    <t>정자동</t>
+  </si>
+  <si>
+    <t>34,522동1503호(정자동,백설마을삼환나우빌아파트)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>이정표</t>
+  </si>
+  <si>
+    <t>동탄광역환승로</t>
+  </si>
+  <si>
+    <t>오산동</t>
+  </si>
+  <si>
+    <t>63,104동1401호(오산동,동탄역 반도유보라아이비파크7.0)</t>
+  </si>
+  <si>
+    <t>김준영</t>
+  </si>
+  <si>
+    <t>22,3031동403호 (산척동,더레이크시티부영5단지)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>안영대</t>
+  </si>
+  <si>
+    <t>가장로</t>
+  </si>
+  <si>
+    <t>가장동</t>
+  </si>
+  <si>
+    <t>599-6(가장동)</t>
+  </si>
+  <si>
+    <t>이규화</t>
+  </si>
+  <si>
+    <t>22,3031동503호 (산척동,더레이크시티부영5단지)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>이미자</t>
+  </si>
+  <si>
+    <t>서수원로577번길</t>
+  </si>
+  <si>
+    <t>금곡동</t>
+  </si>
+  <si>
+    <t>305,203동1702호(금곡동,수원모아미래도센트럴타운2단지)</t>
+  </si>
+  <si>
+    <t>이향도</t>
+  </si>
+  <si>
+    <t>22,3031동602호 (산척동,더레이크시티부영5단지)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>문경심</t>
+  </si>
+  <si>
+    <t>석천로211번길</t>
+  </si>
+  <si>
+    <t>석수동</t>
+  </si>
+  <si>
+    <t>70(석수동)</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>김은경</t>
+  </si>
+  <si>
+    <t>22,3031동801호 (산척동,더레이크시티부영5단지)</t>
+  </si>
+  <si>
+    <t>59195.6
+59195.6</t>
+  </si>
+  <si>
+    <t>24.77415
+24.77415</t>
+  </si>
+  <si>
+    <t>심규석
+나은정</t>
+  </si>
+  <si>
+    <t>710722-1382125
+701102-2177915</t>
+  </si>
+  <si>
+    <t>동탄문화센터로
+동탄문화센터로</t>
+  </si>
+  <si>
+    <t>반송동
+반송동</t>
+  </si>
+  <si>
+    <t>38,412동1604호(반송동,동탄솔빛마을 서해그랑블아파트)
+38,412동1604호(반송동,동탄솔빛마을 서해그랑블아파트)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>오순미</t>
+  </si>
+  <si>
+    <t>22,3031동902호 (산척동,더레이크시티부영5단지)</t>
+  </si>
+  <si>
+    <t>박창원
+강미선</t>
+  </si>
+  <si>
+    <t>680622-1066616
+701119-2471917</t>
+  </si>
+  <si>
+    <t>수성로244번길
+수성로244번길</t>
+  </si>
+  <si>
+    <t>화서동
+화서동</t>
+  </si>
+  <si>
+    <t>25,109동103호(화서동,화서위브하늘채아파트)
+25,109동103호(화서동,화서위브하늘채아파트)</t>
+  </si>
+  <si>
+    <t>임지철</t>
+  </si>
+  <si>
+    <t>22,3031동1002호 (산척동,더레이크시티부영5단지)</t>
+  </si>
+  <si>
+    <t>박태웅
+김미리</t>
+  </si>
+  <si>
+    <t>761207-1661212
+760719-2822216</t>
+  </si>
+  <si>
+    <t>장문로6길
+장문로6길</t>
+  </si>
+  <si>
+    <t>동빙고동
+동빙고동</t>
+  </si>
+  <si>
+    <t>76,103동1102호(동빙고동,용산푸르지오파크타운)
+76,103동1102호(동빙고동,용산푸르지오파크타운)</t>
+  </si>
+  <si>
+    <t>전강욱</t>
+  </si>
+  <si>
+    <t>22,3031동1203호 (산척동,더레이크시티부영5단지)</t>
+  </si>
+  <si>
+    <t>김진욱</t>
+  </si>
+  <si>
+    <t>동탄대로24길</t>
+  </si>
+  <si>
+    <t>영천동</t>
+  </si>
+  <si>
+    <t>117,339동304호(영천동,동탄파크자이)</t>
+  </si>
+  <si>
+    <t>김혜정</t>
+  </si>
+  <si>
+    <t>22,3031동1304호 (산척동,더레이크시티부영5단지)</t>
+  </si>
+  <si>
+    <t>곽미화</t>
+  </si>
+  <si>
+    <t>수청로</t>
+  </si>
+  <si>
+    <t>수청동</t>
+  </si>
+  <si>
+    <t>31,102동205호(수청동,우미이노스빌아파트)</t>
+  </si>
+  <si>
+    <t>정이진</t>
+  </si>
+  <si>
+    <t>22,3031동1402호 (산척동,더레이크시티부영5단지)</t>
+  </si>
+  <si>
+    <t>김원숙</t>
+  </si>
+  <si>
+    <t>대평로51번길</t>
+  </si>
+  <si>
+    <t>22,243동1202호(정자동,꽃뫼노을마을신안아파트)</t>
+  </si>
+  <si>
+    <t>김동엽</t>
+  </si>
+  <si>
+    <t>법조로</t>
+  </si>
+  <si>
+    <t>하동</t>
+  </si>
+  <si>
+    <t>38,102동1103호(하동,광교 더샵 레이크파크)</t>
+  </si>
+  <si>
+    <t>채권구분</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>면제사유</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3032동1304호전유부분 취득</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>CXRVNBXQ8D93</t>
-  </si>
-  <si>
-    <t>이진경</t>
-  </si>
-  <si>
-    <t>삼미로</t>
-  </si>
-  <si>
-    <t>내삼미동</t>
-  </si>
-  <si>
-    <t>34,101동504호(내삼미동,세교자이아파트)</t>
+    <t>토지
+건물</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3032동1401호전유부분 취득</t>
-  </si>
-  <si>
-    <t>이미영
-이재원</t>
-  </si>
-  <si>
-    <t>770607-2095616
-760916-1813714</t>
-  </si>
-  <si>
-    <t>동탄산단8길
-동탄산단8길</t>
-  </si>
-  <si>
-    <t>방교동
-방교동</t>
-  </si>
-  <si>
-    <t>15-12(방교동)
-15-12(방교동)</t>
+    <t>412118182
+87878787</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7420000
+7470000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2181-10-0480-5098
 2181-10-0480-5099</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,101동504호(내삼미동,세교자이아파트)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +556,7 @@
     <numFmt numFmtId="178" formatCode="0000\-0000\-0000\-0000"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +765,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -558,7 +833,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -638,8 +913,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -664,8 +952,14 @@
     <xf numFmtId="41" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -787,9 +1081,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -798,90 +1089,149 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,187 +1253,41 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="20% - 강조색2" xfId="4" builtinId="34"/>
     <cellStyle name="메모" xfId="3" builtinId="10"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="쉼표 [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="쉼표 [0] 2" xfId="7" xr:uid="{AC8AB879-5A4E-4D84-B4EA-74D4E2C7C549}"/>
+    <cellStyle name="쉼표 [0] 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="쉼표 [0] 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="6" xr:uid="{8D1A621D-67F0-4468-A0FB-04FB6184B270}"/>
+    <cellStyle name="표준 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <b/>
@@ -1228,7 +1432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1280,7 +1484,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1482,104 +1686,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI52"/>
+  <dimension ref="A1:AJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.125" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.125" style="47" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="47" customWidth="1"/>
-    <col min="11" max="11" width="22.25" style="47" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="51" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="48" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.25" style="45" customWidth="1"/>
-    <col min="15" max="15" width="19" style="45" customWidth="1"/>
-    <col min="16" max="17" width="9.125" style="45" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.625" style="49" customWidth="1"/>
-    <col min="21" max="21" width="13.875" style="50" customWidth="1"/>
-    <col min="22" max="22" width="24.625" style="50" customWidth="1"/>
-    <col min="23" max="23" width="18.25" style="47" customWidth="1"/>
-    <col min="24" max="24" width="16.25" style="47" customWidth="1"/>
-    <col min="25" max="25" width="23.125" style="46" customWidth="1"/>
-    <col min="26" max="26" width="13.875" style="46" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="31.125" style="46" customWidth="1"/>
-    <col min="28" max="28" width="15.875" style="46" customWidth="1"/>
-    <col min="29" max="29" width="12.75" style="46" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16" style="46" customWidth="1"/>
-    <col min="31" max="31" width="9.875" style="46" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.125" style="46" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.875" style="45" customWidth="1"/>
-    <col min="34" max="34" width="18.625" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.125" style="62" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="62" customWidth="1"/>
+    <col min="11" max="11" width="22.25" style="62" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="68" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.25" style="61" customWidth="1"/>
+    <col min="15" max="15" width="19" style="61" customWidth="1"/>
+    <col min="16" max="17" width="9.125" style="61" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.625" style="64" customWidth="1"/>
+    <col min="21" max="21" width="13.875" style="65" customWidth="1"/>
+    <col min="22" max="22" width="24.625" style="65" customWidth="1"/>
+    <col min="23" max="23" width="18.25" style="62" customWidth="1"/>
+    <col min="24" max="24" width="16.25" style="62" customWidth="1"/>
+    <col min="25" max="25" width="23.125" style="67" customWidth="1"/>
+    <col min="26" max="26" width="13.875" style="67" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.125" style="67" customWidth="1"/>
+    <col min="28" max="28" width="15.875" style="67" customWidth="1"/>
+    <col min="29" max="29" width="12.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16" style="67" customWidth="1"/>
+    <col min="31" max="31" width="9.875" style="67" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.125" style="67" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.875" style="61" customWidth="1"/>
+    <col min="34" max="34" width="18.625" style="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="104" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="68" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="72" t="s">
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="2" t="s">
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" s="104" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="66" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="37" t="s">
@@ -1597,35 +1802,35 @@
       <c r="K2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="69" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="64" t="s">
+      <c r="N2" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="64" t="s">
+      <c r="O2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="64" t="s">
+      <c r="Q2" s="86"/>
+      <c r="R2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="64" t="s">
+      <c r="S2" s="66" t="s">
         <v>20</v>
       </c>
       <c r="T2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="64" t="s">
+      <c r="U2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="64" t="s">
+      <c r="V2" s="66" t="s">
         <v>23</v>
       </c>
       <c r="W2" s="37" t="s">
@@ -1634,45 +1839,48 @@
       <c r="X2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="64" t="s">
+      <c r="Y2" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="63" t="s">
+      <c r="Z2" s="65" t="s">
         <v>27</v>
       </c>
       <c r="AA2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="64" t="s">
+      <c r="AB2" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="64" t="s">
+      <c r="AD2" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="64" t="s">
+      <c r="AE2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="39" t="s">
+      <c r="AF2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="64" t="s">
+      <c r="AG2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="41" t="s">
+      <c r="AH2" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI2" s="63" t="s">
+      <c r="AI2" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ2" s="65" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" s="104" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
@@ -1685,91 +1893,98 @@
       <c r="F3" s="3">
         <v>730</v>
       </c>
-      <c r="G3" s="83">
+      <c r="G3" s="44">
         <v>3032</v>
       </c>
-      <c r="H3" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="83">
-        <v>1304</v>
-      </c>
-      <c r="J3" s="84">
-        <v>43558</v>
-      </c>
-      <c r="K3" s="83" t="s">
-        <v>70</v>
+      <c r="H3" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="44">
+        <v>1401</v>
+      </c>
+      <c r="J3" s="45">
+        <v>43572</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>50</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P3" s="3">
         <v>59195.6</v>
       </c>
-      <c r="Q3" s="85">
+      <c r="Q3" s="70">
         <v>69.361500000000007</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="86">
+        <v>45</v>
+      </c>
+      <c r="T3" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="46">
         <v>26</v>
       </c>
-      <c r="V3" s="87">
+      <c r="V3" s="47">
         <v>7114</v>
       </c>
-      <c r="W3" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="X3" s="89">
-        <v>8410192457810</v>
-      </c>
-      <c r="Y3" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z3" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA3" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="12">
-        <v>0</v>
+      <c r="W3" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA3" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB3" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC3" s="106" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD3" s="106" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE3" s="72" t="s">
+        <v>161</v>
       </c>
       <c r="AF3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI3" s="63"/>
-    </row>
-    <row r="4" spans="1:35" s="46" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>20000</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>32123</v>
+      </c>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="4"/>
+    </row>
+    <row r="4" spans="1:36" s="104" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="65"/>
       <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
@@ -1782,91 +1997,82 @@
       <c r="F4" s="3">
         <v>730</v>
       </c>
-      <c r="G4" s="83">
+      <c r="G4" s="44">
         <v>3032</v>
       </c>
-      <c r="H4" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="83">
-        <v>1401</v>
-      </c>
-      <c r="J4" s="84">
-        <v>43572</v>
-      </c>
-      <c r="K4" s="83" t="s">
-        <v>77</v>
+      <c r="H4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="44">
+        <v>1304</v>
+      </c>
+      <c r="J4" s="45">
+        <v>43558</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>40</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="M4" s="3">
         <v>0</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P4" s="3">
         <v>59195.6</v>
       </c>
-      <c r="Q4" s="85">
+      <c r="Q4" s="70">
         <v>69.361500000000007</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="U4" s="86">
+        <v>45</v>
+      </c>
+      <c r="T4" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="46">
         <v>26</v>
       </c>
-      <c r="V4" s="87">
+      <c r="V4" s="47">
         <v>7114</v>
       </c>
-      <c r="W4" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="X4" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y4" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z4" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA4" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB4" s="91">
-        <v>412118182</v>
-      </c>
-      <c r="AC4" s="91">
-        <v>7420000</v>
-      </c>
-      <c r="AD4" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>0</v>
-      </c>
+      <c r="W4" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" s="71">
+        <v>8410192457810</v>
+      </c>
+      <c r="Y4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
       <c r="AH4" s="3"/>
-      <c r="AI4" s="4"/>
-    </row>
-    <row r="5" spans="1:35" s="46" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AI4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ4" s="65"/>
+    </row>
+    <row r="5" spans="1:36" s="67" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1886,24 +2092,24 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="8"/>
-      <c r="X5" s="53"/>
+      <c r="X5" s="73"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="54"/>
+      <c r="AD5" s="74"/>
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="4"/>
     </row>
-    <row r="6" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
+    <row r="6" spans="1:36" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="67"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1923,18 +2129,18 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="W6" s="8"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="55"/>
+      <c r="AD6" s="75"/>
       <c r="AE6" s="12"/>
       <c r="AF6" s="12"/>
       <c r="AG6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1954,22 +2160,22 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
       <c r="W7" s="8"/>
-      <c r="X7" s="53"/>
+      <c r="X7" s="73"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
-      <c r="AD7" s="54"/>
+      <c r="AD7" s="74"/>
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
       <c r="AG7" s="3"/>
     </row>
-    <row r="8" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+    <row r="8" spans="1:36" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="67"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1989,18 +2195,18 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="W8" s="8"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
       <c r="AB8" s="11"/>
       <c r="AC8" s="11"/>
-      <c r="AD8" s="55"/>
+      <c r="AD8" s="75"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
       <c r="AG8" s="3"/>
     </row>
-    <row r="9" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2020,19 +2226,19 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="W9" s="13"/>
-      <c r="X9" s="56"/>
+      <c r="X9" s="76"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
-      <c r="AD9" s="50"/>
+      <c r="AD9" s="65"/>
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
       <c r="AG9" s="3"/>
     </row>
-    <row r="10" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+    <row r="10" spans="1:36" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="67"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2051,18 +2257,18 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="W10" s="13"/>
-      <c r="X10" s="56"/>
+      <c r="X10" s="76"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
-      <c r="AD10" s="57"/>
+      <c r="AD10" s="77"/>
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
       <c r="AG10" s="3"/>
     </row>
-    <row r="11" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2082,19 +2288,19 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="W11" s="13"/>
-      <c r="X11" s="56"/>
+      <c r="X11" s="76"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
-      <c r="AD11" s="54"/>
+      <c r="AD11" s="74"/>
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
       <c r="AG11" s="3"/>
     </row>
-    <row r="12" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
+    <row r="12" spans="1:36" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="67"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2113,18 +2319,18 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="W12" s="13"/>
-      <c r="X12" s="56"/>
+      <c r="X12" s="76"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
-      <c r="AD12" s="50"/>
+      <c r="AD12" s="65"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="12"/>
       <c r="AG12" s="3"/>
     </row>
-    <row r="13" spans="1:35" s="34" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" s="34" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -2148,7 +2354,7 @@
       <c r="U13" s="29"/>
       <c r="V13" s="29"/>
       <c r="W13" s="30"/>
-      <c r="X13" s="58"/>
+      <c r="X13" s="78"/>
       <c r="Y13" s="31"/>
       <c r="Z13" s="31"/>
       <c r="AA13" s="31"/>
@@ -2160,8 +2366,8 @@
       <c r="AG13" s="23"/>
       <c r="AH13" s="33"/>
     </row>
-    <row r="14" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
+    <row r="14" spans="1:36" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="67"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2180,7 +2386,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="W14" s="8"/>
-      <c r="X14" s="53"/>
+      <c r="X14" s="73"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -2191,7 +2397,7 @@
       <c r="AF14" s="12"/>
       <c r="AG14" s="3"/>
     </row>
-    <row r="15" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2211,19 +2417,19 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="W15" s="13"/>
-      <c r="X15" s="56"/>
+      <c r="X15" s="76"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="16"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
-      <c r="AD15" s="57"/>
+      <c r="AD15" s="77"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
       <c r="AG15" s="3"/>
     </row>
-    <row r="16" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
+    <row r="16" spans="1:36" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="67"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2242,7 +2448,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="W16" s="8"/>
-      <c r="X16" s="53"/>
+      <c r="X16" s="73"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -2259,7 +2465,7 @@
       <c r="AA17" s="21"/>
     </row>
     <row r="18" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2278,13 +2484,13 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="W18" s="13"/>
-      <c r="X18" s="56"/>
+      <c r="X18" s="76"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
-      <c r="AD18" s="54"/>
+      <c r="AD18" s="74"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="12"/>
       <c r="AG18" s="3"/>
@@ -2309,7 +2515,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="W19" s="8"/>
-      <c r="X19" s="53"/>
+      <c r="X19" s="73"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -2343,7 +2549,7 @@
       <c r="U20" s="29"/>
       <c r="V20" s="29"/>
       <c r="W20" s="30"/>
-      <c r="X20" s="58"/>
+      <c r="X20" s="78"/>
       <c r="Y20" s="31"/>
       <c r="Z20" s="31"/>
       <c r="AA20" s="31"/>
@@ -2375,7 +2581,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="W21" s="13"/>
-      <c r="X21" s="56"/>
+      <c r="X21" s="76"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
@@ -2411,13 +2617,13 @@
       <c r="U23" s="29"/>
       <c r="V23" s="29"/>
       <c r="W23" s="36"/>
-      <c r="X23" s="59"/>
+      <c r="X23" s="79"/>
       <c r="Y23" s="31"/>
       <c r="Z23" s="31"/>
       <c r="AA23" s="31"/>
       <c r="AB23" s="30"/>
       <c r="AC23" s="30"/>
-      <c r="AD23" s="60"/>
+      <c r="AD23" s="80"/>
       <c r="AE23" s="32"/>
       <c r="AF23" s="32"/>
       <c r="AG23" s="23"/>
@@ -2446,13 +2652,13 @@
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
       <c r="W24" s="30"/>
-      <c r="X24" s="58"/>
+      <c r="X24" s="78"/>
       <c r="Y24" s="31"/>
       <c r="Z24" s="31"/>
       <c r="AA24" s="31"/>
       <c r="AB24" s="30"/>
       <c r="AC24" s="30"/>
-      <c r="AD24" s="61"/>
+      <c r="AD24" s="81"/>
       <c r="AE24" s="32"/>
       <c r="AF24" s="32"/>
       <c r="AG24" s="23"/>
@@ -2478,7 +2684,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="W25" s="8"/>
-      <c r="X25" s="53"/>
+      <c r="X25" s="73"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
@@ -2490,7 +2696,7 @@
       <c r="AG25" s="3"/>
     </row>
     <row r="26" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2509,7 +2715,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="W26" s="13"/>
-      <c r="X26" s="56"/>
+      <c r="X26" s="76"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
@@ -2544,20 +2750,20 @@
       <c r="U27" s="29"/>
       <c r="V27" s="29"/>
       <c r="W27" s="36"/>
-      <c r="X27" s="59"/>
+      <c r="X27" s="79"/>
       <c r="Y27" s="31"/>
       <c r="Z27" s="31"/>
       <c r="AA27" s="31"/>
       <c r="AB27" s="30"/>
       <c r="AC27" s="30"/>
-      <c r="AD27" s="62"/>
+      <c r="AD27" s="82"/>
       <c r="AE27" s="32"/>
       <c r="AF27" s="32"/>
       <c r="AG27" s="23"/>
       <c r="AH27" s="33"/>
     </row>
     <row r="28" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2576,13 +2782,13 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="W28" s="13"/>
-      <c r="X28" s="56"/>
+      <c r="X28" s="76"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="11"/>
       <c r="AC28" s="11"/>
-      <c r="AD28" s="54"/>
+      <c r="AD28" s="74"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="12"/>
       <c r="AG28" s="3"/>
@@ -2611,20 +2817,20 @@
       <c r="U29" s="29"/>
       <c r="V29" s="29"/>
       <c r="W29" s="30"/>
-      <c r="X29" s="58"/>
+      <c r="X29" s="78"/>
       <c r="Y29" s="31"/>
       <c r="Z29" s="31"/>
       <c r="AA29" s="31"/>
       <c r="AB29" s="30"/>
       <c r="AC29" s="30"/>
-      <c r="AD29" s="61"/>
+      <c r="AD29" s="81"/>
       <c r="AE29" s="32"/>
       <c r="AF29" s="32"/>
       <c r="AG29" s="23"/>
       <c r="AH29" s="33"/>
     </row>
     <row r="30" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2643,20 +2849,20 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="W30" s="8"/>
-      <c r="X30" s="53"/>
+      <c r="X30" s="73"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="11"/>
       <c r="AC30" s="11"/>
-      <c r="AD30" s="57"/>
+      <c r="AD30" s="77"/>
       <c r="AE30" s="12"/>
       <c r="AF30" s="12"/>
       <c r="AG30" s="3"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2675,7 +2881,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="W32" s="13"/>
-      <c r="X32" s="56"/>
+      <c r="X32" s="76"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
@@ -2706,19 +2912,19 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="56"/>
+      <c r="X33" s="76"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="11"/>
       <c r="AC33" s="11"/>
-      <c r="AD33" s="54"/>
+      <c r="AD33" s="74"/>
       <c r="AE33" s="12"/>
       <c r="AF33" s="12"/>
       <c r="AG33" s="3"/>
     </row>
     <row r="34" spans="1:33" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2737,27 +2943,27 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="W34" s="13"/>
-      <c r="X34" s="56"/>
+      <c r="X34" s="76"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="11"/>
       <c r="AC34" s="11"/>
-      <c r="AD34" s="50"/>
+      <c r="AD34" s="65"/>
       <c r="AE34" s="12"/>
       <c r="AF34" s="12"/>
       <c r="AG34" s="3"/>
     </row>
     <row r="35" spans="1:33" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="46"/>
-      <c r="C35" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" s="47" t="s">
-        <v>43</v>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="62" t="s">
+        <v>56</v>
       </c>
       <c r="Z35" s="18" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:33" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2782,40 +2988,40 @@
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="N1:AA1"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="AB1:AH1"/>
+    <mergeCell ref="AB1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="J23:J34">
-    <cfRule type="cellIs" dxfId="27" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" stopIfTrue="1" operator="equal">
       <formula>"개인"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J22">
-    <cfRule type="cellIs" dxfId="26" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="14" stopIfTrue="1" operator="equal">
       <formula>"개인"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="25" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>"개인"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J8">
-    <cfRule type="cellIs" dxfId="24" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
       <formula>"개인"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="22" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
       <formula>"개인"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="J3">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"개인"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="J3">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"개인"</formula>
     </cfRule>
@@ -2827,232 +3033,1352 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="46" customWidth="1"/>
-    <col min="3" max="3" width="12" style="46" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="46" customWidth="1"/>
-    <col min="5" max="5" width="9" style="46" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="46" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="15" style="46" customWidth="1"/>
-    <col min="10" max="10" width="13" style="46" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="46" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="46" customWidth="1"/>
-    <col min="13" max="13" width="9" style="46" customWidth="1"/>
-    <col min="14" max="14" width="15.875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9" style="46" customWidth="1"/>
-    <col min="17" max="17" width="34.625" style="46" customWidth="1"/>
-    <col min="18" max="18" width="9" style="46" customWidth="1"/>
-    <col min="19" max="19" width="10.375" style="46" customWidth="1"/>
-    <col min="20" max="28" width="9" style="46" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="46"/>
+    <col min="1" max="2" width="9" style="67" customWidth="1"/>
+    <col min="3" max="3" width="12" style="67" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="67" customWidth="1"/>
+    <col min="5" max="5" width="9" style="67" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="67" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="67" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="67" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="67" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="67" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="67" customWidth="1"/>
+    <col min="13" max="13" width="9" style="67" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="67" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="67" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="67" customWidth="1"/>
+    <col min="17" max="17" width="53.125" style="67" customWidth="1"/>
+    <col min="18" max="18" width="9" style="67" customWidth="1"/>
+    <col min="19" max="19" width="10.375" style="67" customWidth="1"/>
+    <col min="20" max="29" width="9" style="67" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="74"/>
+      <c r="B1" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="93"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="44" t="s">
+      <c r="C2" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" s="46" t="s">
+      <c r="P2" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
+      <c r="A3" s="67">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="46">
-        <v>533</v>
-      </c>
-      <c r="F3" s="46">
-        <v>1032</v>
-      </c>
-      <c r="G3" s="20">
-        <v>43861</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="46">
-        <v>26</v>
-      </c>
-      <c r="J3" s="46">
-        <v>2601</v>
-      </c>
-      <c r="K3" s="46">
-        <v>61849</v>
-      </c>
-      <c r="L3" s="46">
-        <v>64.304100000000005</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="46">
+      <c r="C3" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="67">
+        <v>730</v>
+      </c>
+      <c r="F3" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G3" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="52">
+        <v>204</v>
+      </c>
+      <c r="K3" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L3" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="84">
+        <v>8411301665816</v>
+      </c>
+      <c r="O3" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="67">
         <v>6000</v>
       </c>
-      <c r="S3" s="46">
+      <c r="S3" s="67">
         <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G4" s="20"/>
+      <c r="A4" s="67">
+        <v>2</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="67">
+        <v>730</v>
+      </c>
+      <c r="F4" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G4" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="52">
+        <v>304</v>
+      </c>
+      <c r="K4" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L4" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="84">
+        <v>7410211055812</v>
+      </c>
+      <c r="O4" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S4" s="67">
+        <v>1200</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G5" s="20"/>
+      <c r="A5" s="67">
+        <v>3</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="67">
+        <v>730</v>
+      </c>
+      <c r="F5" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G5" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="52">
+        <v>402</v>
+      </c>
+      <c r="K5" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L5" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M5" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="84">
+        <v>6804171380511</v>
+      </c>
+      <c r="O5" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S5" s="67">
+        <v>1200</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G6" s="20"/>
+      <c r="A6" s="67">
+        <v>4</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="67">
+        <v>730</v>
+      </c>
+      <c r="F6" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G6" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="52">
+        <v>403</v>
+      </c>
+      <c r="K6" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L6" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M6" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="84">
+        <v>8211041726915</v>
+      </c>
+      <c r="O6" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="R6" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S6" s="67">
+        <v>1200</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G7" s="20"/>
+      <c r="A7" s="67">
+        <v>5</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="67">
+        <v>730</v>
+      </c>
+      <c r="F7" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G7" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="52">
+        <v>502</v>
+      </c>
+      <c r="K7" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L7" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="84">
+        <v>6503151817321</v>
+      </c>
+      <c r="O7" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S7" s="67">
+        <v>1200</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G8" s="20"/>
+      <c r="A8" s="67">
+        <v>6</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="67">
+        <v>730</v>
+      </c>
+      <c r="F8" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G8" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="52">
+        <v>503</v>
+      </c>
+      <c r="K8" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L8" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M8" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="84">
+        <v>6011102052418</v>
+      </c>
+      <c r="O8" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S8" s="67">
+        <v>1200</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G9" s="20"/>
+      <c r="A9" s="67">
+        <v>7</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="67">
+        <v>730</v>
+      </c>
+      <c r="F9" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G9" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="52">
+        <v>601</v>
+      </c>
+      <c r="K9" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L9" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="84">
+        <v>6105032229924</v>
+      </c>
+      <c r="O9" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="R9" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S9" s="67">
+        <v>1200</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G10" s="20"/>
+      <c r="A10" s="67">
+        <v>8</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="67">
+        <v>730</v>
+      </c>
+      <c r="F10" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G10" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="52">
+        <v>602</v>
+      </c>
+      <c r="K10" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L10" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M10" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="84">
+        <v>6111012552712</v>
+      </c>
+      <c r="O10" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S10" s="67">
+        <v>1200</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G11" s="20"/>
+      <c r="A11" s="67">
+        <v>9</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="67">
+        <v>730</v>
+      </c>
+      <c r="F11" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G11" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="52">
+        <v>701</v>
+      </c>
+      <c r="K11" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L11" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M11" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" s="84">
+        <v>5706162056519</v>
+      </c>
+      <c r="O11" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="R11" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S11" s="67">
+        <v>1200</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G13" s="20"/>
+      <c r="A12" s="67">
+        <v>10</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="67">
+        <v>730</v>
+      </c>
+      <c r="F12" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G12" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="52">
+        <v>801</v>
+      </c>
+      <c r="K12" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L12" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" s="84">
+        <v>7504082340329</v>
+      </c>
+      <c r="O12" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="R12" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S12" s="67">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="67">
+        <v>11</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="67">
+        <v>730</v>
+      </c>
+      <c r="F13" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G13" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="52">
+        <v>803</v>
+      </c>
+      <c r="K13" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="R13" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S13" s="67">
+        <v>1200</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G15" s="20"/>
+      <c r="A14" s="67">
+        <v>12</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="67">
+        <v>730</v>
+      </c>
+      <c r="F14" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G14" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="52">
+        <v>902</v>
+      </c>
+      <c r="K14" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L14" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="84">
+        <v>7302152533324</v>
+      </c>
+      <c r="O14" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S14" s="67">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="67">
+        <v>13</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="67">
+        <v>730</v>
+      </c>
+      <c r="F15" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G15" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="52">
+        <v>904</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="P15" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q15" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="R15" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S15" s="67">
+        <v>1200</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G22" s="20"/>
+      <c r="A16" s="67">
+        <v>14</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="67">
+        <v>730</v>
+      </c>
+      <c r="F16" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G16" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H16" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="52">
+        <v>1002</v>
+      </c>
+      <c r="K16" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L16" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M16" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="N16" s="84">
+        <v>7706191652723</v>
+      </c>
+      <c r="O16" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="R16" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S16" s="67">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="67">
+        <v>15</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="67">
+        <v>730</v>
+      </c>
+      <c r="F17" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G17" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="52">
+        <v>1101</v>
+      </c>
+      <c r="K17" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="O17" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="P17" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="R17" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S17" s="67">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="67">
+        <v>16</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="67">
+        <v>730</v>
+      </c>
+      <c r="F18" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G18" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="52">
+        <v>1203</v>
+      </c>
+      <c r="K18" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L18" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M18" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="N18" s="84">
+        <v>8711011542823</v>
+      </c>
+      <c r="O18" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="R18" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S18" s="67">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="67">
+        <v>17</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="67">
+        <v>730</v>
+      </c>
+      <c r="F19" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G19" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="52">
+        <v>1303</v>
+      </c>
+      <c r="K19" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L19" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M19" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="N19" s="84">
+        <v>7304181037019</v>
+      </c>
+      <c r="O19" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="R19" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S19" s="67">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="67">
+        <v>18</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="67">
+        <v>730</v>
+      </c>
+      <c r="F20" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G20" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H20" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="52">
+        <v>1304</v>
+      </c>
+      <c r="K20" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L20" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M20" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="N20" s="84">
+        <v>8509232822231</v>
+      </c>
+      <c r="O20" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="R20" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S20" s="67">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="67">
+        <v>19</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="67">
+        <v>730</v>
+      </c>
+      <c r="F21" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G21" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H21" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="52">
+        <v>1401</v>
+      </c>
+      <c r="K21" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L21" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M21" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="N21" s="84">
+        <v>8207022667510</v>
+      </c>
+      <c r="O21" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="R21" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S21" s="67">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="67">
+        <v>20</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="67">
+        <v>730</v>
+      </c>
+      <c r="F22" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G22" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H22" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="52">
+        <v>1402</v>
+      </c>
+      <c r="K22" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L22" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M22" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="N22" s="84">
+        <v>7905182634511</v>
+      </c>
+      <c r="O22" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="R22" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S22" s="67">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="67">
+        <v>21</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="67">
+        <v>730</v>
+      </c>
+      <c r="F23" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G23" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="52">
+        <v>1403</v>
+      </c>
+      <c r="K23" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L23" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M23" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="N23" s="84">
+        <v>6902082222721</v>
+      </c>
+      <c r="O23" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="P23" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q23" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="R23" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S23" s="67">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="67">
+        <v>22</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="67">
+        <v>730</v>
+      </c>
+      <c r="F24" s="67">
+        <v>3031</v>
+      </c>
+      <c r="G24" s="51">
+        <v>43908</v>
+      </c>
+      <c r="H24" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="52">
+        <v>1404</v>
+      </c>
+      <c r="K24" s="53">
+        <v>59195.6</v>
+      </c>
+      <c r="L24" s="83">
+        <v>49.548299999999998</v>
+      </c>
+      <c r="M24" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="N24" s="84">
+        <v>9006131704311</v>
+      </c>
+      <c r="O24" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q24" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="R24" s="67">
+        <v>6000</v>
+      </c>
+      <c r="S24" s="67">
+        <v>1200</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3061,102 +4387,12 @@
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="21" priority="28" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23">
+    <cfRule type="cellIs" dxfId="3" priority="29" stopIfTrue="1" operator="equal">
       <formula>"개인"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="20" priority="27" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="19" priority="26" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="18" priority="25" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="15" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"개인"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"개인"</formula>
     </cfRule>
